--- a/hazards_dict.xlsx
+++ b/hazards_dict.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\GHSScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF8C9EE3-FDBE-4405-B1A2-AB215E1312EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513CD3C3-6050-4603-A42F-BFFA6F9ADFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="234">
   <si>
     <t>H200</t>
   </si>
@@ -777,17 +777,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1022,10 +1012,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:C112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="D14" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1198,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1219,7 +1209,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1230,7 +1220,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1241,7 +1231,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1252,7 +1242,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1261,7 +1251,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1262,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1281,7 +1271,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1292,7 +1282,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1303,7 +1293,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -1314,7 +1304,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1325,7 +1315,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1335,11 +1325,8 @@
       <c r="C28" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1350,7 +1337,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1361,7 +1348,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1372,7 +1359,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -1383,7 +1370,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1394,7 +1381,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1405,7 +1392,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -1416,7 +1403,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -1427,7 +1414,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -1438,7 +1425,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -1449,7 +1436,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -1459,11 +1446,8 @@
       <c r="C39" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -1473,11 +1457,8 @@
       <c r="C40" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1488,7 +1469,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -1499,7 +1480,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
@@ -1510,7 +1491,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -1521,7 +1502,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -1532,7 +1513,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -1543,7 +1524,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -1551,7 +1532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>

--- a/hazards_dict.xlsx
+++ b/hazards_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\GHSScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513CD3C3-6050-4603-A42F-BFFA6F9ADFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7160D3-F202-48AE-ACEF-4A6679256D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="233">
   <si>
     <t>H200</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>health</t>
-  </si>
-  <si>
-    <t>excalm</t>
   </si>
   <si>
     <t>eclam</t>
@@ -1014,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1611,7 @@
         <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
@@ -1633,7 +1630,7 @@
         <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
@@ -1967,7 +1964,7 @@
         <v>166</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
@@ -1994,7 +1991,7 @@
         <v>172</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
@@ -2005,7 +2002,7 @@
         <v>174</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">

--- a/hazards_dict.xlsx
+++ b/hazards_dict.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\GitHub\GHSScraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chtim\Documents\EigeneProjekte\Programmieren\Python\GHSScraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7160D3-F202-48AE-ACEF-4A6679256D49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36F0F7A-0CC0-45AE-A5F9-874FA44A1984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13667" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="232">
   <si>
     <t>H200</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>health</t>
-  </si>
-  <si>
-    <t>eclam</t>
   </si>
   <si>
     <t>aqpol</t>
@@ -1011,17 +1008,17 @@
   </sheetPr>
   <dimension ref="A1:C112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="93" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="60.375" customWidth="1"/>
-    <col min="2" max="2" width="86.25" customWidth="1"/>
+    <col min="1" max="1" width="60.36328125" customWidth="1"/>
+    <col min="2" max="2" width="86.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>220</v>
       </c>
@@ -1032,7 +1029,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1040,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1051,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1062,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1073,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1087,7 +1084,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,7 +1106,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1120,7 +1117,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1128,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1139,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1153,7 +1150,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1164,7 +1161,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1175,7 +1172,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -1184,7 +1181,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1195,7 +1192,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -1228,7 +1225,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1245,7 @@
       </c>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1268,7 +1265,7 @@
       </c>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1279,7 +1276,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1290,7 +1287,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1298,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
@@ -1323,7 +1320,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1334,7 +1331,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1345,7 +1342,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
@@ -1356,7 +1353,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -1367,7 +1364,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -1378,7 +1375,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>59</v>
       </c>
@@ -1389,7 +1386,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -1400,7 +1397,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>63</v>
       </c>
@@ -1411,7 +1408,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
@@ -1422,7 +1419,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -1433,7 +1430,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -1444,7 +1441,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>71</v>
       </c>
@@ -1455,7 +1452,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>75</v>
       </c>
@@ -1477,7 +1474,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>77</v>
       </c>
@@ -1488,7 +1485,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>79</v>
       </c>
@@ -1499,7 +1496,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
@@ -1510,7 +1507,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>83</v>
       </c>
@@ -1521,7 +1518,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
@@ -1529,7 +1526,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>87</v>
       </c>
@@ -1540,7 +1537,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>89</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>90</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>92</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>94</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>96</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>98</v>
       </c>
@@ -1603,7 +1600,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -1614,7 +1611,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>102</v>
       </c>
@@ -1622,7 +1619,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>104</v>
       </c>
@@ -1630,10 +1627,10 @@
         <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>106</v>
       </c>
@@ -1644,7 +1641,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
@@ -1655,7 +1652,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
@@ -1663,7 +1660,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>112</v>
       </c>
@@ -1674,7 +1671,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>114</v>
       </c>
@@ -1685,7 +1682,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>116</v>
       </c>
@@ -1696,7 +1693,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>118</v>
       </c>
@@ -1705,7 +1702,7 @@
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
@@ -1716,7 +1713,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>122</v>
       </c>
@@ -1727,7 +1724,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>124</v>
       </c>
@@ -1738,7 +1735,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>126</v>
       </c>
@@ -1749,7 +1746,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>128</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>130</v>
       </c>
@@ -1771,7 +1768,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>132</v>
       </c>
@@ -1782,7 +1779,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>134</v>
       </c>
@@ -1793,7 +1790,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>136</v>
       </c>
@@ -1804,7 +1801,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>138</v>
       </c>
@@ -1815,7 +1812,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>140</v>
       </c>
@@ -1826,7 +1823,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>142</v>
       </c>
@@ -1837,7 +1834,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>144</v>
       </c>
@@ -1848,7 +1845,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>146</v>
       </c>
@@ -1859,7 +1856,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>148</v>
       </c>
@@ -1870,7 +1867,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>150</v>
       </c>
@@ -1881,7 +1878,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>152</v>
       </c>
@@ -1892,7 +1889,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>154</v>
       </c>
@@ -1903,7 +1900,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>156</v>
       </c>
@@ -1912,7 +1909,7 @@
       </c>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>158</v>
       </c>
@@ -1923,7 +1920,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>160</v>
       </c>
@@ -1934,7 +1931,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>162</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>164</v>
       </c>
@@ -1956,7 +1953,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>165</v>
       </c>
@@ -1964,10 +1961,10 @@
         <v>166</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>167</v>
       </c>
@@ -1975,7 +1972,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>169</v>
       </c>
@@ -1983,7 +1980,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>171</v>
       </c>
@@ -1991,10 +1988,10 @@
         <v>172</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>173</v>
       </c>
@@ -2002,10 +1999,10 @@
         <v>174</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>175</v>
       </c>
@@ -2013,7 +2010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>177</v>
       </c>
@@ -2021,7 +2018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>179</v>
       </c>
@@ -2032,7 +2029,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>181</v>
       </c>
@@ -2043,7 +2040,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>183</v>
       </c>
@@ -2054,7 +2051,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>185</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>187</v>
       </c>
@@ -2076,7 +2073,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>189</v>
       </c>
@@ -2087,7 +2084,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>191</v>
       </c>
@@ -2098,7 +2095,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>193</v>
       </c>
@@ -2109,7 +2106,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>195</v>
       </c>
@@ -2120,7 +2117,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>197</v>
       </c>
@@ -2131,7 +2128,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>199</v>
       </c>
@@ -2142,7 +2139,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>201</v>
       </c>
@@ -2153,7 +2150,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>203</v>
       </c>
@@ -2164,7 +2161,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>205</v>
       </c>
@@ -2172,7 +2169,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>207</v>
       </c>
@@ -2180,7 +2177,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>209</v>
       </c>
@@ -2188,7 +2185,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>211</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>213</v>
       </c>
